--- a/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/TransposeRanges.xlsx
@@ -404,201 +404,201 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="28">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="13" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="16" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="17" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="28">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="15" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
